--- a/examples/data/batch_batch1_all_batchdata.xlsx
+++ b/examples/data/batch_batch1_all_batchdata.xlsx
@@ -483,13 +483,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4994136473256164</v>
+        <v>0.4993945389396674</v>
       </c>
       <c r="D3" t="n">
-        <v>72.05816351797674</v>
+        <v>72.05843649491888</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4183152861461712</v>
+        <v>0.4182696989968359</v>
       </c>
     </row>
     <row r="4">
@@ -500,13 +500,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7607059877159519</v>
+        <v>0.760731161729804</v>
       </c>
       <c r="D4" t="n">
-        <v>68.32541579811479</v>
+        <v>68.32505616934549</v>
       </c>
       <c r="E4" t="n">
-        <v>1.041684155363114</v>
+        <v>1.041744213367592</v>
       </c>
     </row>
     <row r="5">
@@ -517,13 +517,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>1.138317991090994</v>
+        <v>1.137694340842461</v>
       </c>
       <c r="D5" t="n">
-        <v>62.93095860704276</v>
+        <v>62.93986789630755</v>
       </c>
       <c r="E5" t="n">
-        <v>1.942558506272143</v>
+        <v>1.941070654964928</v>
       </c>
     </row>
     <row r="6">
@@ -534,13 +534,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>1.658867139471915</v>
+        <v>1.659198041326097</v>
       </c>
       <c r="D6" t="n">
-        <v>55.49454220160104</v>
+        <v>55.48981503225561</v>
       </c>
       <c r="E6" t="n">
-        <v>3.184440045980911</v>
+        <v>3.185229483261605</v>
       </c>
     </row>
     <row r="7">
@@ -551,13 +551,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>2.327034034145832</v>
+        <v>2.328529020240033</v>
       </c>
       <c r="D7" t="n">
-        <v>45.9493008491165</v>
+        <v>45.92794390491368</v>
       </c>
       <c r="E7" t="n">
-        <v>4.778495351845826</v>
+        <v>4.782061961527717</v>
       </c>
     </row>
     <row r="8">
@@ -568,13 +568,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>3.099790416287353</v>
+        <v>3.103807958530334</v>
       </c>
       <c r="D8" t="n">
-        <v>34.90992396138049</v>
+        <v>34.85253050076651</v>
       </c>
       <c r="E8" t="n">
-        <v>6.622071292097742</v>
+        <v>6.631656000020285</v>
       </c>
     </row>
     <row r="9">
@@ -585,13 +585,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>3.874593669666349</v>
+        <v>3.875115199029886</v>
       </c>
       <c r="D9" t="n">
-        <v>23.84130605596626</v>
+        <v>23.83385563648721</v>
       </c>
       <c r="E9" t="n">
-        <v>8.470530482301918</v>
+        <v>8.471774702354928</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>4.526497361025954</v>
+        <v>4.5268492439649</v>
       </c>
       <c r="D10" t="n">
-        <v>14.52839617940046</v>
+        <v>14.52336928027272</v>
       </c>
       <c r="E10" t="n">
-        <v>10.02578643168841</v>
+        <v>10.02662592384275</v>
       </c>
     </row>
     <row r="11">
@@ -619,13 +619,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>4.98310036033786</v>
+        <v>4.984599397742091</v>
       </c>
       <c r="D11" t="n">
-        <v>8.005496189230353</v>
+        <v>7.984081369169992</v>
       </c>
       <c r="E11" t="n">
-        <v>11.11511073004681</v>
+        <v>11.1186870049969</v>
       </c>
     </row>
     <row r="12">
@@ -636,13 +636,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.256336465274011</v>
+        <v>5.257249554859264</v>
       </c>
       <c r="D12" t="n">
-        <v>4.10212326157105</v>
+        <v>4.08907912463894</v>
       </c>
       <c r="E12" t="n">
-        <v>11.76697400896592</v>
+        <v>11.76915237983359</v>
       </c>
     </row>
     <row r="13">
@@ -653,13 +653,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.402703000223186</v>
+        <v>5.403387259767413</v>
       </c>
       <c r="D13" t="n">
-        <v>2.011172762297116</v>
+        <v>2.001397625951099</v>
       </c>
       <c r="E13" t="n">
-        <v>12.11616274234466</v>
+        <v>12.11779519011446</v>
       </c>
     </row>
     <row r="14">
@@ -670,13 +670,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.476088889026424</v>
+        <v>5.47642045415167</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9628029222508454</v>
+        <v>0.9580662776045761</v>
       </c>
       <c r="E14" t="n">
-        <v>12.29124050563239</v>
+        <v>12.29203152528833</v>
       </c>
     </row>
     <row r="15">
@@ -687,13 +687,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>5.511605388370275</v>
+        <v>5.51170744044832</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4554243601958178</v>
+        <v>0.453966473366719</v>
       </c>
       <c r="E15" t="n">
-        <v>12.37597272549558</v>
+        <v>12.37621619259605</v>
       </c>
     </row>
     <row r="16">
@@ -704,13 +704,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>5.528492806132848</v>
+        <v>5.528538400891681</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2141755350162202</v>
+        <v>0.2135241813187025</v>
       </c>
       <c r="E16" t="n">
-        <v>12.41626127930057</v>
+        <v>12.41637005536807</v>
       </c>
     </row>
     <row r="17">
@@ -721,13 +721,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>5.536454048573743</v>
+        <v>5.536476335933863</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1004435001462876</v>
+        <v>0.1001251092875248</v>
       </c>
       <c r="E17" t="n">
-        <v>12.43525452912385</v>
+        <v>12.43530770039727</v>
       </c>
     </row>
     <row r="18">
@@ -738,13 +738,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>5.540191991706279</v>
+        <v>5.540199050997729</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04704431253864022</v>
+        <v>0.04694346551801269</v>
       </c>
       <c r="E18" t="n">
-        <v>12.44417219345433</v>
+        <v>12.44418903490678</v>
       </c>
     </row>
     <row r="19">
@@ -755,13 +755,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>5.541943661646862</v>
+        <v>5.541944361601679</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02202045624458639</v>
+        <v>0.02201045689014835</v>
       </c>
       <c r="E19" t="n">
-        <v>12.44835117745544</v>
+        <v>12.44835284734764</v>
       </c>
     </row>
     <row r="20">
@@ -772,13 +772,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.542763788766083</v>
+        <v>5.542763395937468</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01030435454140749</v>
+        <v>0.01030996637887501</v>
       </c>
       <c r="E20" t="n">
-        <v>12.45030776643987</v>
+        <v>12.45030682926302</v>
       </c>
     </row>
     <row r="21">
@@ -789,13 +789,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>5.543147608241216</v>
+        <v>5.543147317235013</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004821219182373176</v>
+        <v>0.004825376413949538</v>
       </c>
       <c r="E21" t="n">
-        <v>12.45122345004483</v>
+        <v>12.45122275578716</v>
       </c>
     </row>
   </sheetData>
@@ -864,13 +864,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4825802292055428</v>
+        <v>0.4825559610476136</v>
       </c>
       <c r="D3" t="n">
-        <v>48.95278704358631</v>
+        <v>48.95313373155673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.330963389234032</v>
+        <v>0.3309054923429722</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +881,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6697017583665801</v>
+        <v>0.6697126961664897</v>
       </c>
       <c r="D4" t="n">
-        <v>46.27962234128579</v>
+        <v>46.27946608700135</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7773818945182209</v>
+        <v>0.7774079889837202</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9151453693242683</v>
+        <v>0.9151827355748048</v>
       </c>
       <c r="D5" t="n">
-        <v>42.77328504189024</v>
+        <v>42.77275123831114</v>
       </c>
       <c r="E5" t="n">
-        <v>1.362940223517277</v>
+        <v>1.363029368714985</v>
       </c>
     </row>
     <row r="6">
@@ -915,13 +915,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>1.224914635269494</v>
+        <v>1.224814234000167</v>
       </c>
       <c r="D6" t="n">
-        <v>38.34800981410131</v>
+        <v>38.34944411794883</v>
       </c>
       <c r="E6" t="n">
-        <v>2.101961186558029</v>
+        <v>2.101721657815492</v>
       </c>
     </row>
     <row r="7">
@@ -932,13 +932,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.596051013944228</v>
+        <v>1.596423889541688</v>
       </c>
       <c r="D7" t="n">
-        <v>33.0460615473194</v>
+        <v>33.04073475306996</v>
       </c>
       <c r="E7" t="n">
-        <v>2.987386547110608</v>
+        <v>2.988276121750262</v>
       </c>
     </row>
     <row r="8">
@@ -949,13 +949,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>2.011526501780981</v>
+        <v>2.012864389739609</v>
       </c>
       <c r="D8" t="n">
-        <v>27.11069743536578</v>
+        <v>27.09158475024251</v>
       </c>
       <c r="E8" t="n">
-        <v>3.978592353806863</v>
+        <v>3.981784172222446</v>
       </c>
     </row>
     <row r="9">
@@ -966,13 +966,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.439016549222489</v>
+        <v>2.4406798955793</v>
       </c>
       <c r="D9" t="n">
-        <v>21.00369675762995</v>
+        <v>20.97993466681836</v>
       </c>
       <c r="E9" t="n">
-        <v>4.998461466988747</v>
+        <v>5.00242973615428</v>
       </c>
     </row>
     <row r="10">
@@ -983,13 +983,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>2.837881536945993</v>
+        <v>2.838494787598619</v>
       </c>
       <c r="D10" t="n">
-        <v>15.30562550443704</v>
+        <v>15.29686478082808</v>
       </c>
       <c r="E10" t="n">
-        <v>5.950039366271963</v>
+        <v>5.951502407114656</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>3.173379749207618</v>
+        <v>3.173904316352297</v>
       </c>
       <c r="D11" t="n">
-        <v>10.51279390069954</v>
+        <v>10.50530008434698</v>
       </c>
       <c r="E11" t="n">
-        <v>6.750442244096125</v>
+        <v>6.751693711427001</v>
       </c>
     </row>
     <row r="12">
@@ -1017,13 +1017,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>3.429012208198724</v>
+        <v>3.430684447824659</v>
       </c>
       <c r="D12" t="n">
-        <v>6.860901629398032</v>
+        <v>6.837012491884654</v>
       </c>
       <c r="E12" t="n">
-        <v>7.360308253403478</v>
+        <v>7.364297739368212</v>
       </c>
     </row>
     <row r="13">
@@ -1034,13 +1034,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>3.608050188682537</v>
+        <v>3.609547872908927</v>
       </c>
       <c r="D13" t="n">
-        <v>4.303216193914981</v>
+        <v>4.281820704966535</v>
       </c>
       <c r="E13" t="n">
-        <v>7.787441721129148</v>
+        <v>7.791014767783534</v>
       </c>
     </row>
     <row r="14">
@@ -1051,13 +1051,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>3.725594175089091</v>
+        <v>3.726575854212996</v>
       </c>
       <c r="D14" t="n">
-        <v>2.624016388107058</v>
+        <v>2.609992400622696</v>
       </c>
       <c r="E14" t="n">
-        <v>8.067868088699072</v>
+        <v>8.070210094608955</v>
       </c>
     </row>
     <row r="15">
@@ -1068,13 +1068,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>3.799339808000172</v>
+        <v>3.79997359690157</v>
       </c>
       <c r="D15" t="n">
-        <v>1.570507346520189</v>
+        <v>1.561453219357352</v>
       </c>
       <c r="E15" t="n">
-        <v>8.243804098644079</v>
+        <v>8.245316137880268</v>
       </c>
     </row>
     <row r="16">
@@ -1085,13 +1085,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>3.844246665071113</v>
+        <v>3.844601133028192</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9289808169353263</v>
+        <v>0.9239169889770538</v>
       </c>
       <c r="E16" t="n">
-        <v>8.350939029084749</v>
+        <v>8.351784688353778</v>
       </c>
     </row>
     <row r="17">
@@ -1102,13 +1102,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>3.87108503956683</v>
+        <v>3.871348187720134</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5455754669965129</v>
+        <v>0.5418162076635857</v>
       </c>
       <c r="E17" t="n">
-        <v>8.414967722524532</v>
+        <v>8.415595518833126</v>
       </c>
     </row>
     <row r="18">
@@ -1119,13 +1119,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>3.886942998941307</v>
+        <v>3.887048320909461</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3190331902182707</v>
+        <v>0.3175285906732002</v>
       </c>
       <c r="E18" t="n">
-        <v>8.452800282746498</v>
+        <v>8.453051550870521</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1136,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>3.896249335110733</v>
+        <v>3.896323488213613</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1860855306550447</v>
+        <v>0.1850262006138915</v>
       </c>
       <c r="E19" t="n">
-        <v>8.475002541893558</v>
+        <v>8.475179450010426</v>
       </c>
     </row>
     <row r="20">
@@ -1153,13 +1153,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>3.901688867334186</v>
+        <v>3.901717874880735</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1083779274628423</v>
+        <v>0.1079635339407227</v>
       </c>
       <c r="E20" t="n">
-        <v>8.487979711626657</v>
+        <v>8.488048915344844</v>
       </c>
     </row>
     <row r="21">
@@ -1170,13 +1170,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>3.904860756908391</v>
+        <v>3.904877204752264</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06306521925991308</v>
+        <v>0.06283025006172629</v>
       </c>
       <c r="E21" t="n">
-        <v>8.495546933896545</v>
+        <v>8.495586173752637</v>
       </c>
     </row>
   </sheetData>
@@ -1245,13 +1245,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2076535069114193</v>
+        <v>0.2076537304933803</v>
       </c>
       <c r="D3" t="n">
-        <v>84.85637628780276</v>
+        <v>84.85637309377475</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1865958124825144</v>
+        <v>0.1865963458851922</v>
       </c>
     </row>
     <row r="4">
@@ -1262,13 +1262,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3315484433631548</v>
+        <v>0.3315286256653224</v>
       </c>
       <c r="D4" t="n">
-        <v>83.08644862420654</v>
+        <v>83.08673173417557</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4821737323030834</v>
+        <v>0.4821264529382546</v>
       </c>
     </row>
     <row r="5">
@@ -1279,13 +1279,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5253553379585646</v>
+        <v>0.5253786756193924</v>
       </c>
       <c r="D5" t="n">
-        <v>80.31777870141499</v>
+        <v>80.31744530626028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9445416094092752</v>
+        <v>0.9445972864001075</v>
       </c>
     </row>
     <row r="6">
@@ -1296,13 +1296,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8224605018333396</v>
+        <v>0.821860493789173</v>
       </c>
       <c r="D6" t="n">
-        <v>76.07341921748962</v>
+        <v>76.0819907609777</v>
       </c>
       <c r="E6" t="n">
-        <v>1.65334964322481</v>
+        <v>1.651918195462299</v>
       </c>
     </row>
     <row r="7">
@@ -1313,13 +1313,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.263411897844627</v>
+        <v>1.263758486027916</v>
       </c>
       <c r="D7" t="n">
-        <v>69.7741135601855</v>
+        <v>69.76916230042423</v>
       </c>
       <c r="E7" t="n">
-        <v>2.705333687994596</v>
+        <v>2.706160548374728</v>
       </c>
     </row>
     <row r="8">
@@ -1330,13 +1330,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>1.885020863059941</v>
+        <v>1.885901212388957</v>
       </c>
       <c r="D8" t="n">
-        <v>60.89398548568101</v>
+        <v>60.88140906669508</v>
       </c>
       <c r="E8" t="n">
-        <v>4.188315076436845</v>
+        <v>4.190415338407498</v>
       </c>
     </row>
     <row r="9">
@@ -1347,13 +1347,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.693529737658339</v>
+        <v>2.695038129449655</v>
       </c>
       <c r="D9" t="n">
-        <v>49.34385870570391</v>
+        <v>49.32231025154226</v>
       </c>
       <c r="E9" t="n">
-        <v>6.117186248693023</v>
+        <v>6.120784840538018</v>
       </c>
     </row>
     <row r="10">
@@ -1364,13 +1364,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>3.624791330147982</v>
+        <v>3.626788542755801</v>
       </c>
       <c r="D10" t="n">
-        <v>36.04012167013759</v>
+        <v>36.01159006145445</v>
       </c>
       <c r="E10" t="n">
-        <v>8.338910333632597</v>
+        <v>8.343675112282682</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>4.529107093435749</v>
+        <v>4.53089476592157</v>
       </c>
       <c r="D11" t="n">
-        <v>23.12132505174092</v>
+        <v>23.09578687337204</v>
       </c>
       <c r="E11" t="n">
-        <v>10.49634936890484</v>
+        <v>10.50061424469244</v>
       </c>
     </row>
     <row r="12">
@@ -1398,13 +1398,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.240658897767408</v>
+        <v>5.241975976930995</v>
       </c>
       <c r="D12" t="n">
-        <v>12.95629927557438</v>
+        <v>12.93748385895167</v>
       </c>
       <c r="E12" t="n">
-        <v>12.19390867352466</v>
+        <v>12.19705084810065</v>
       </c>
     </row>
     <row r="13">
@@ -1415,13 +1415,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.693150829998912</v>
+        <v>5.694414689619098</v>
       </c>
       <c r="D13" t="n">
-        <v>6.492128815124324</v>
+        <v>6.474073677693073</v>
       </c>
       <c r="E13" t="n">
-        <v>13.27342514041982</v>
+        <v>13.27644034837083</v>
       </c>
     </row>
     <row r="14">
@@ -1432,13 +1432,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.935920177477171</v>
+        <v>5.936564054472879</v>
       </c>
       <c r="D14" t="n">
-        <v>3.023995279720622</v>
+        <v>3.014797036924774</v>
       </c>
       <c r="E14" t="n">
-        <v>13.85260344083223</v>
+        <v>13.85413954737914</v>
       </c>
     </row>
     <row r="15">
@@ -1449,13 +1449,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>6.052834252301664</v>
+        <v>6.053180107958378</v>
       </c>
       <c r="D15" t="n">
-        <v>1.353794210799295</v>
+        <v>1.348853415703374</v>
       </c>
       <c r="E15" t="n">
-        <v>14.1315270193421</v>
+        <v>14.13235213212312</v>
       </c>
     </row>
     <row r="16">
@@ -1466,13 +1466,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>6.105981495155647</v>
+        <v>6.106083821913698</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5945478843138013</v>
+        <v>0.5930860734845085</v>
       </c>
       <c r="E16" t="n">
-        <v>14.25832115586518</v>
+        <v>14.25856527827367</v>
       </c>
     </row>
     <row r="17">
@@ -1483,13 +1483,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>6.129481412492744</v>
+        <v>6.129524304360563</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2588347794981508</v>
+        <v>0.2582220385292825</v>
       </c>
       <c r="E17" t="n">
-        <v>14.31438524436939</v>
+        <v>14.31448757211119</v>
       </c>
     </row>
     <row r="18">
@@ -1500,13 +1500,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>6.139742511593304</v>
+        <v>6.139759920892021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1122476494901516</v>
+        <v>0.11199894522274</v>
       </c>
       <c r="E18" t="n">
-        <v>14.33886529508072</v>
+        <v>14.33890682869338</v>
       </c>
     </row>
     <row r="19">
@@ -1517,13 +1517,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>6.144198149853797</v>
+        <v>6.14420350465702</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04859567434024974</v>
+        <v>0.04851917715132476</v>
       </c>
       <c r="E19" t="n">
-        <v>14.34949517493076</v>
+        <v>14.34950794996131</v>
       </c>
     </row>
     <row r="20">
@@ -1534,13 +1534,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>6.146128222095857</v>
+        <v>6.146128881229147</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02102321373937761</v>
+        <v>0.02101379754951118</v>
       </c>
       <c r="E20" t="n">
-        <v>14.3540997758511</v>
+        <v>14.35410134835481</v>
       </c>
     </row>
     <row r="21">
@@ -1551,13 +1551,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>6.146963402637169</v>
+        <v>6.146962451221107</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009092063149217719</v>
+        <v>0.009105654807237053</v>
       </c>
       <c r="E21" t="n">
-        <v>14.35609227799966</v>
+        <v>14.35609000819277</v>
       </c>
     </row>
   </sheetData>
@@ -1626,13 +1626,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2767694878621106</v>
+        <v>0.2767678261644011</v>
       </c>
       <c r="D3" t="n">
-        <v>62.5492432527946</v>
+        <v>62.5492669913333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2157475060992763</v>
+        <v>0.2157435417633124</v>
       </c>
     </row>
     <row r="4">
@@ -1643,13 +1643,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4084082475349209</v>
+        <v>0.4083916470586791</v>
       </c>
       <c r="D4" t="n">
-        <v>60.66868954318303</v>
+        <v>60.66892669284362</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5297999756044097</v>
+        <v>0.52976037161109</v>
       </c>
     </row>
     <row r="5">
@@ -1660,13 +1660,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5968738004215662</v>
+        <v>0.5969042102789361</v>
       </c>
       <c r="D5" t="n">
-        <v>57.97632450194524</v>
+        <v>57.97589007541139</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9794249374911204</v>
+        <v>0.9794974867222737</v>
       </c>
     </row>
     <row r="6">
@@ -1677,13 +1677,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8601496203935933</v>
+        <v>0.8595703548905435</v>
       </c>
       <c r="D6" t="n">
-        <v>54.21524135948771</v>
+        <v>54.22351658095985</v>
       </c>
       <c r="E6" t="n">
-        <v>1.607525822281528</v>
+        <v>1.606143860295681</v>
       </c>
     </row>
     <row r="7">
@@ -1694,13 +1694,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.214924085342989</v>
+        <v>1.21499764941075</v>
       </c>
       <c r="D7" t="n">
-        <v>49.14703471735351</v>
+        <v>49.14598380209976</v>
       </c>
       <c r="E7" t="n">
-        <v>2.453916331517942</v>
+        <v>2.454091834365316</v>
       </c>
     </row>
     <row r="8">
@@ -1711,13 +1711,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>1.668807881085155</v>
+        <v>1.670030727041466</v>
       </c>
       <c r="D8" t="n">
-        <v>42.66298049246541</v>
+        <v>42.64551126451809</v>
       </c>
       <c r="E8" t="n">
-        <v>3.536753387074254</v>
+        <v>3.539670748141454</v>
       </c>
     </row>
     <row r="9">
@@ -1728,13 +1728,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.208686035070826</v>
+        <v>2.211600855977068</v>
       </c>
       <c r="D9" t="n">
-        <v>34.95043543552728</v>
+        <v>34.90879513686663</v>
       </c>
       <c r="E9" t="n">
-        <v>4.824748411582926</v>
+        <v>4.831702341459247</v>
       </c>
     </row>
     <row r="10">
@@ -1745,13 +1745,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>2.791065276689735</v>
+        <v>2.794339689561141</v>
       </c>
       <c r="D10" t="n">
-        <v>26.63073198382857</v>
+        <v>26.58395465709416</v>
       </c>
       <c r="E10" t="n">
-        <v>6.21413888801661</v>
+        <v>6.22195070158125</v>
       </c>
     </row>
     <row r="11">
@@ -1762,13 +1762,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>3.347120475408821</v>
+        <v>3.347069254123184</v>
       </c>
       <c r="D11" t="n">
-        <v>18.68708628784161</v>
+        <v>18.68781802049353</v>
       </c>
       <c r="E11" t="n">
-        <v>7.54072771924643</v>
+        <v>7.540605519893555</v>
       </c>
     </row>
     <row r="12">
@@ -1779,13 +1779,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>3.80992825289218</v>
+        <v>3.810972426498211</v>
       </c>
       <c r="D12" t="n">
-        <v>12.07554660950792</v>
+        <v>12.06062984370741</v>
       </c>
       <c r="E12" t="n">
-        <v>8.644854845528155</v>
+        <v>8.647345945416831</v>
       </c>
     </row>
     <row r="13">
@@ -1796,13 +1796,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>4.146482549754028</v>
+        <v>4.147565809178396</v>
       </c>
       <c r="D13" t="n">
-        <v>7.267628082910093</v>
+        <v>7.252152948276239</v>
       </c>
       <c r="E13" t="n">
-        <v>9.447777239469991</v>
+        <v>9.450361586953841</v>
       </c>
     </row>
     <row r="14">
@@ -1813,13 +1813,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>4.364827695807172</v>
+        <v>4.365502970094329</v>
       </c>
       <c r="D14" t="n">
-        <v>4.14841171072232</v>
+        <v>4.138764935191488</v>
       </c>
       <c r="E14" t="n">
-        <v>9.968686373625346</v>
+        <v>9.970297385138995</v>
       </c>
     </row>
     <row r="15">
@@ -1830,13 +1830,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>4.495136784539656</v>
+        <v>4.495618004818742</v>
       </c>
       <c r="D15" t="n">
-        <v>2.286853300258242</v>
+        <v>2.279978724842712</v>
       </c>
       <c r="E15" t="n">
-        <v>10.27956662817285</v>
+        <v>10.28071468226724</v>
       </c>
     </row>
     <row r="16">
@@ -1847,13 +1847,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>4.56880136833767</v>
+        <v>4.569131592544823</v>
       </c>
       <c r="D16" t="n">
-        <v>1.234502103143763</v>
+        <v>1.229784614470129</v>
       </c>
       <c r="E16" t="n">
-        <v>10.45530927809096</v>
+        <v>10.45609709869946</v>
       </c>
     </row>
     <row r="17">
@@ -1864,13 +1864,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>4.609119215128382</v>
+        <v>4.609240348808486</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6585328632764464</v>
+        <v>0.6568023821321012</v>
       </c>
       <c r="E17" t="n">
-        <v>10.5514961411488</v>
+        <v>10.55178513149991</v>
       </c>
     </row>
     <row r="18">
@@ -1881,13 +1881,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>4.630786360761588</v>
+        <v>4.630867795770304</v>
       </c>
       <c r="D18" t="n">
-        <v>0.349002211373487</v>
+        <v>0.3478388541061194</v>
       </c>
       <c r="E18" t="n">
-        <v>10.6031877600166</v>
+        <v>10.60338204068025</v>
       </c>
     </row>
     <row r="19">
@@ -1898,13 +1898,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>4.642314676304085</v>
+        <v>4.642335209548042</v>
       </c>
       <c r="D19" t="n">
-        <v>0.18431198933784</v>
+        <v>0.1840186572812926</v>
       </c>
       <c r="E19" t="n">
-        <v>10.63069102709655</v>
+        <v>10.63074001355</v>
       </c>
     </row>
     <row r="20">
@@ -1915,13 +1915,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>4.648415637848363</v>
+        <v>4.648423636592812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0971553958481525</v>
+        <v>0.09704112807029251</v>
       </c>
       <c r="E20" t="n">
-        <v>10.64524617820933</v>
+        <v>10.64526526092824</v>
       </c>
     </row>
     <row r="21">
@@ -1932,13 +1932,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>4.651635152096726</v>
+        <v>4.651636341518961</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05116233515723342</v>
+        <v>0.05114534341103219</v>
       </c>
       <c r="E21" t="n">
-        <v>10.65292701934471</v>
+        <v>10.65292985696633</v>
       </c>
     </row>
   </sheetData>
